--- a/Documentos/Selo_Bronze.xlsx
+++ b/Documentos/Selo_Bronze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Downloads\Catálogo de Bases\Comparativo Padrões\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Downloads\Catálogo de Bases\Arquivos Catalogo de Bases - GIT\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13EE63F-BE4D-4374-89B2-08CACB0E6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851DB21F-7E76-48A9-9A88-1798CD4B913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="504" windowWidth="23256" windowHeight="12456" xr2:uid="{157A21FA-2092-47C0-B204-3F36F3DB388C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{157A21FA-2092-47C0-B204-3F36F3DB388C}"/>
   </bookViews>
   <sheets>
     <sheet name="Proposta" sheetId="2" r:id="rId1"/>
@@ -37,22 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
-  <si>
-    <t>Tipo de conteúdo</t>
-  </si>
-  <si>
-    <t>Proposta Propriedade DCAT v3</t>
-  </si>
-  <si>
-    <t>Proposta nome do Nome</t>
-  </si>
-  <si>
-    <t>Proposta da descrição</t>
-  </si>
-  <si>
-    <t>Tipo de campso</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>Exemplo</t>
   </si>
@@ -60,12 +45,6 @@
     <t>Conjunto de Dados</t>
   </si>
   <si>
-    <t>foaf:Person</t>
-  </si>
-  <si>
-    <t>Entidade ou Organização à qual o Conjunto de dados está associado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identifica a organização que está cadastrando o conjunto de dados. </t>
   </si>
   <si>
@@ -78,9 +57,6 @@
     <t>dcterms:title</t>
   </si>
   <si>
-    <t>Título do Conjunto de Dados</t>
-  </si>
-  <si>
     <t>Deve conter um nome dado ao Conjunto de dados.</t>
   </si>
   <si>
@@ -91,9 +67,6 @@
   </si>
   <si>
     <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>Descrição do Conjunto de Dados</t>
   </si>
   <si>
     <t>Descrição sobre o conjunto de dados, incluindo metadados que idiquem quais as Políticas Públicas ou serviços públicos impactados e metadados que descreva as principais informações do conjunto de dados.</t>
@@ -160,9 +133,6 @@
     <t>dcterms:accessRights</t>
   </si>
   <si>
-    <t>Observância legal (Compliance)</t>
-  </si>
-  <si>
     <t>Deve indicar a visibilidade do conjunto de dados, se a visibilidade é pública ou privada.</t>
   </si>
   <si>
@@ -177,9 +147,6 @@
     <t>dcterms:creator</t>
   </si>
   <si>
-    <t>Área técnica responsável pelo dado</t>
-  </si>
-  <si>
     <t>Deve indicar qual área técnica do órgão/entidade é responsável pelo conjunto de dados.</t>
   </si>
   <si>
@@ -189,9 +156,6 @@
     <t>dcat:contactPoint</t>
   </si>
   <si>
-    <t>e-mail da área técnica responsável pelo dado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deve indicar o e-mail de contato da área técnica responsável pelo conjunto de dados. </t>
   </si>
   <si>
@@ -202,9 +166,6 @@
   </si>
   <si>
     <t>dcat:keyword</t>
-  </si>
-  <si>
-    <t>Palavras-chave</t>
   </si>
   <si>
     <t xml:space="preserve">Deve  indicar palavras ou tags que resumem os principais aspectos do conjunto de dados. </t>
@@ -230,9 +191,6 @@
   </si>
   <si>
     <t>dcat:theme</t>
-  </si>
-  <si>
-    <t>Temas aos quais o dado está associado</t>
   </si>
   <si>
     <t>Deve selecionar a área temática à qual o conjunto de dados esteja vinculado.</t>
@@ -365,12 +323,51 @@
   <si>
     <t>Coloca os dados/banco de dados no domínio público, renunciando a todos os direitos autorais</t>
   </si>
+  <si>
+    <t>Nome do Campo</t>
+  </si>
+  <si>
+    <t>Descrição do Campo</t>
+  </si>
+  <si>
+    <t>Propriedade DCAT-BR</t>
+  </si>
+  <si>
+    <t>Tipo de Classe</t>
+  </si>
+  <si>
+    <t>Tipo de Campo</t>
+  </si>
+  <si>
+    <t>Organização</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Observância legal</t>
+  </si>
+  <si>
+    <t>Área técnica responsável</t>
+  </si>
+  <si>
+    <t>e-mail da área técnica responsável</t>
+  </si>
+  <si>
+    <t>Palavras-Chave</t>
+  </si>
+  <si>
+    <t>Temas</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,11 +553,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{26FD3497-93CB-4562-83FA-C836A052FBE2}" name="Tabela13" displayName="Tabela13" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F1048576" xr:uid="{6736BEB2-77F8-4CAC-93AB-3552899E335D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E83F999-04F6-4C83-A640-1E225F2A319F}" name="Tipo de conteúdo" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{640B1C07-B356-4D43-8C56-08C9217C455C}" name="Proposta Propriedade DCAT v3" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{2ED860D3-3E55-4F8E-B64D-F3335FDAF7F9}" name="Proposta nome do Nome" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{8D3C623B-28C0-4AEF-AD12-B97FA44EB0BC}" name="Proposta da descrição" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FC8AB75F-016A-42D9-AD0B-33203DD01E2F}" name="Tipo de campso" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2E83F999-04F6-4C83-A640-1E225F2A319F}" name="Tipo de Classe" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{640B1C07-B356-4D43-8C56-08C9217C455C}" name="Propriedade DCAT-BR" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{2ED860D3-3E55-4F8E-B64D-F3335FDAF7F9}" name="Nome do Campo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8D3C623B-28C0-4AEF-AD12-B97FA44EB0BC}" name="Descrição do Campo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FC8AB75F-016A-42D9-AD0B-33203DD01E2F}" name="Tipo de Campo" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{7738A867-0AE8-4F0A-87B8-96E73CF2DB57}" name="Exemplo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -568,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,11 +863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF7CA6D-81E9-49E2-9339-4F7447F75E3D}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -881,344 +878,344 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="360">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="120">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="135">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="120">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="90">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="105">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="360">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1235,7 @@
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
@@ -1246,75 +1243,75 @@
     <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1335,15 +1332,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5B9E4AA21009F4B9BD19ACB7C1C162A" ma:contentTypeVersion="17" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="e7aeb658f4fba76d8f2c9a304faf7dcb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ab22bd5-026e-46df-bb15-45a821913e1d" xmlns:ns3="f7d25d62-ba1f-4020-8db4-13f4f9bbd101" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc15485faddf0b3670ee106f6a2f64a7" ns2:_="" ns3:_="">
     <xsd:import namespace="0ab22bd5-026e-46df-bb15-45a821913e1d"/>
@@ -1586,14 +1574,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D50B2950-5715-426B-B8DC-37DE7B0D1A7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D50B2950-5715-426B-B8DC-37DE7B0D1A7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0ab22bd5-026e-46df-bb15-45a821913e1d"/>
+    <ds:schemaRef ds:uri="f7d25d62-ba1f-4020-8db4-13f4f9bbd101"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA30DA4A-42B8-4449-BE1D-9494734E3B88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCDB1BD9-9CCD-4D57-87F8-2B5B012E747E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0ab22bd5-026e-46df-bb15-45a821913e1d"/>
+    <ds:schemaRef ds:uri="f7d25d62-ba1f-4020-8db4-13f4f9bbd101"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCDB1BD9-9CCD-4D57-87F8-2B5B012E747E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA30DA4A-42B8-4449-BE1D-9494734E3B88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>